--- a/bh3/550136227739467030_2021-07-22_12-09-32.xlsx
+++ b/bh3/550136227739467030_2021-07-22_12-09-32.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4964577049</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-23 16:57:20</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44400.70648148148</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-23 13:57:20</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44400.58148148148</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-23 13:57:04</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44400.5812962963</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -776,10 +786,8 @@
           <t>4964567165</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-23 08:55:04</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44400.37157407407</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -856,10 +864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-23 07:04:12</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44400.29458333334</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -923,10 +929,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-23 04:11:54</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44400.17493055556</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1002,10 +1006,8 @@
           <t>4969930874</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-23 02:22:44</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44400.09912037037</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1069,10 +1071,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-23 00:32:59</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44400.02290509259</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1144,10 +1144,8 @@
           <t>4965413518</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:26:24</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44399.76833333333</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1215,10 +1213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:11:46</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44399.75817129629</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1282,10 +1278,8 @@
           <t>4964628430</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:00:52</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44399.75060185185</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1349,10 +1343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-22 16:19:12</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44399.68</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1429,10 +1421,8 @@
           <t>4965886320</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-22 15:57:55</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44399.66521990741</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1504,10 +1494,8 @@
           <t>4965874712</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-22 15:57:06</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44399.66465277778</v>
       </c>
       <c r="I15" t="n">
         <v>3</v>
@@ -1575,10 +1563,8 @@
           <t>4964611362</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-22 15:36:11</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44399.65012731482</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1654,10 +1640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-22 14:48:29</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44399.61700231482</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1730,10 +1714,8 @@
           <t>4964567165</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-22 14:46:09</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44399.61538194444</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1809,10 +1791,8 @@
           <t>4964771311</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-22 14:37:50</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44399.60960648148</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1888,10 +1868,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-22 14:30:47</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44399.60471064815</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1968,10 +1946,8 @@
           <t>4965413518</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-22 14:27:46</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44399.60261574074</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2040,10 +2016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-22 14:21:16</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44399.59810185185</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2111,10 +2085,8 @@
           <t>4965362281</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-22 14:16:23</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44399.59471064815</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2190,10 +2162,8 @@
           <t>4965356778</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-22 14:15:56</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44399.59439814815</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2269,10 +2239,8 @@
           <t>4965308151</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-22 14:08:04</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44399.58893518519</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2340,10 +2308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-22 14:03:46</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44399.58594907408</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2411,10 +2377,8 @@
           <t>4964611362</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:53:42</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44399.57895833333</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2482,10 +2446,8 @@
           <t>4965228915</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:53:12</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44399.57861111111</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2553,10 +2515,8 @@
           <t>4965222259</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:52:07</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44399.5778587963</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2632,10 +2592,8 @@
           <t>4965197034</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:47:10</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44399.5744212963</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2711,10 +2669,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:33:05</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44399.5646412037</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2782,10 +2738,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:25:05</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44399.55908564815</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2862,10 +2816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:13:48</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44399.55125</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2937,10 +2889,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:07:25</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44399.54681712963</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3013,10 +2963,8 @@
           <t>4964917382</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:05:36</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44399.54555555555</v>
       </c>
       <c r="I35" t="n">
         <v>5</v>
@@ -3091,10 +3039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:01:53</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44399.54297453703</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -3162,10 +3108,8 @@
           <t>4964917382</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:01:48</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44399.54291666667</v>
       </c>
       <c r="I37" t="n">
         <v>7</v>
@@ -3233,10 +3177,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-22 13:00:55</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44399.54230324074</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3308,10 +3250,8 @@
           <t>4964903139</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:59:58</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44399.54164351852</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3379,10 +3319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:58:01</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44399.54028935185</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3454,10 +3392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:57:04</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44399.53962962963</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3534,10 +3470,8 @@
           <t>4964881961</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:56:29</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44399.53922453704</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3605,10 +3539,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:55:50</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44399.53877314815</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3680,10 +3612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:55:43</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44399.53869212963</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3755,10 +3685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:55:05</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44399.53825231481</v>
       </c>
       <c r="I45" t="n">
         <v>2</v>
@@ -3834,10 +3762,8 @@
           <t>4964870851</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:54:37</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44399.53792824074</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3897,10 +3823,8 @@
           <t>4964829862</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:49:50</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44399.53460648148</v>
       </c>
       <c r="I47" t="n">
         <v>6</v>
@@ -3960,10 +3884,8 @@
           <t>4964821801</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:48:17</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44399.53353009259</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4039,10 +3961,8 @@
           <t>4964819778</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:47:55</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44399.53327546296</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4106,10 +4026,8 @@
           <t>4964780615</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:45:58</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44399.53192129629</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4181,10 +4099,8 @@
           <t>4964577049</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:42:29</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44399.52950231481</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4249,10 +4165,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:41:59</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44399.52915509259</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4320,10 +4234,8 @@
           <t>4964780615</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:41:46</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44399.52900462963</v>
       </c>
       <c r="I53" t="n">
         <v>3</v>
@@ -4399,10 +4311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:40:45</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44399.52829861111</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4474,10 +4384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:40:44</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44399.52828703704</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4545,10 +4453,8 @@
           <t>4964771311</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:40:16</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44399.52796296297</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4624,10 +4530,8 @@
           <t>4964567165</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:40:09</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44399.52788194444</v>
       </c>
       <c r="I57" t="n">
         <v>4</v>
@@ -4695,10 +4599,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:39:43</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44399.52758101852</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4774,10 +4676,8 @@
           <t>4964584694</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:39:11</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44399.52721064815</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4853,10 +4753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:38:05</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44399.52644675926</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
@@ -4925,10 +4823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:37:47</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44399.52623842593</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5000,10 +4896,8 @@
           <t>4964594561</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:36:42</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44399.52548611111</v>
       </c>
       <c r="I62" t="n">
         <v>3</v>
@@ -5071,10 +4965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:36:28</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44399.52532407407</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5142,10 +5034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:35:48</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44399.52486111111</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5209,10 +5099,8 @@
           <t>4964577049</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:35:29</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44399.5246412037</v>
       </c>
       <c r="I65" t="n">
         <v>4</v>
@@ -5280,10 +5168,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:34:54</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44399.52423611111</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5359,10 +5245,8 @@
           <t>4964733129</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:34:47</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44399.52415509259</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5434,10 +5318,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:34:47</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44399.52415509259</v>
       </c>
       <c r="I68" t="n">
         <v>3</v>
@@ -5509,10 +5391,8 @@
           <t>4964577049</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:33:56</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44399.52356481482</v>
       </c>
       <c r="I69" t="n">
         <v>2</v>
@@ -5580,10 +5460,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:33:55</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44399.52355324074</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5659,10 +5537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:33:19</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44399.52313657408</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
@@ -5726,10 +5602,8 @@
           <t>4964712526</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:32:24</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44399.5225</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5805,10 +5679,8 @@
           <t>4964715603</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:31:40</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44399.52199074074</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5880,10 +5752,8 @@
           <t>4964715421</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:31:36</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44399.52194444444</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
@@ -5951,10 +5821,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:30:51</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44399.52142361111</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -6014,10 +5882,8 @@
           <t>4964694376</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:30:47</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44399.52137731481</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6093,10 +5959,8 @@
           <t>4964698368</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:30:42</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44399.52131944444</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6156,10 +6020,8 @@
           <t>4964697152</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:30:10</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44399.52094907407</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6227,10 +6089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:29:40</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44399.52060185185</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6294,10 +6154,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:29:37</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44399.52056712963</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6373,10 +6231,8 @@
           <t>4964691858</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:29:36</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44399.52055555556</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6448,10 +6304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:29:06</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44399.52020833334</v>
       </c>
       <c r="I82" t="n">
         <v>2</v>
@@ -6531,10 +6385,8 @@
           <t>4964683702</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:28:43</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44399.51994212963</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6610,10 +6462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:27:37</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44399.51917824074</v>
       </c>
       <c r="I84" t="n">
         <v>2</v>
@@ -6685,10 +6535,8 @@
           <t>4964667510</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:26:10</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44399.51817129629</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6748,10 +6596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:24:54</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44399.51729166666</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6827,10 +6673,8 @@
           <t>4964656821</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:24:01</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44399.51667824074</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6898,10 +6742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:23:08</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44399.51606481482</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6977,10 +6819,8 @@
           <t>4964639835</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:22:59</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44399.51596064815</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7048,10 +6888,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:22:40</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44399.51574074074</v>
       </c>
       <c r="I90" t="n">
         <v>2</v>
@@ -7119,10 +6957,8 @@
           <t>4964628430</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:22:13</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44399.51542824074</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7186,10 +7022,8 @@
           <t>4964645368</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:21:54</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44399.51520833333</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7265,10 +7099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:21:24</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44399.51486111111</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7336,10 +7168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:21:09</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44399.5146875</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7407,10 +7237,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:20:56</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44399.51453703704</v>
       </c>
       <c r="I95" t="n">
         <v>3</v>
@@ -7478,10 +7306,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:20:35</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44399.51429398148</v>
       </c>
       <c r="I96" t="n">
         <v>2</v>
@@ -7557,10 +7383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:20:34</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44399.51428240741</v>
       </c>
       <c r="I97" t="n">
         <v>14</v>
@@ -7620,10 +7444,8 @@
           <t>4964628430</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:20:30</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44399.51423611111</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7691,10 +7513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:20:06</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44399.51395833334</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7766,10 +7586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:19:27</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44399.51350694444</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7841,10 +7659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:19:21</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44399.5134375</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7908,10 +7724,8 @@
           <t>4964618611</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:18:42</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44399.51298611111</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7987,10 +7801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:18:20</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44399.51273148148</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8058,10 +7870,8 @@
           <t>4964611362</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:17:32</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44399.51217592593</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8137,10 +7947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:17:24</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44399.51208333333</v>
       </c>
       <c r="I105" t="n">
         <v>4</v>
@@ -8216,10 +8024,8 @@
           <t>4964610148</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:17:02</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44399.5118287037</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8295,10 +8101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:17:01</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44399.51181712963</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8370,10 +8174,8 @@
           <t>4964605187</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:16:48</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44399.51166666667</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8449,10 +8251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:16:46</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44399.51164351852</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8520,10 +8320,8 @@
           <t>4964605033</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:16:44</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44399.51162037037</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8599,10 +8397,8 @@
           <t>4964594561</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:16:33</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44399.51149305556</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8674,10 +8470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:16:19</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44399.51133101852</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8753,10 +8547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:15:47</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44399.51096064815</v>
       </c>
       <c r="I113" t="n">
         <v>3</v>
@@ -8824,10 +8616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:15:30</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44399.51076388889</v>
       </c>
       <c r="I114" t="n">
         <v>2</v>
@@ -8899,10 +8689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:15:12</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44399.51055555556</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8970,10 +8758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:14:48</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44399.51027777778</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -9041,10 +8827,8 @@
           <t>4964589400</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:14:37</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44399.51015046296</v>
       </c>
       <c r="I117" t="n">
         <v>2</v>
@@ -9116,10 +8900,8 @@
           <t>4964584694</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:14:31</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44399.51008101852</v>
       </c>
       <c r="I118" t="n">
         <v>4</v>
@@ -9195,10 +8977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:14:13</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44399.50987268519</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9274,10 +9054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:14:12</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44399.50986111111</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9345,10 +9123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:14:11</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44399.50984953704</v>
       </c>
       <c r="I121" t="n">
         <v>75</v>
@@ -9420,10 +9196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:14:00</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44399.50972222222</v>
       </c>
       <c r="I122" t="n">
         <v>390</v>
@@ -9495,10 +9269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:13:58</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44399.50969907407</v>
       </c>
       <c r="I123" t="n">
         <v>15</v>
@@ -9562,10 +9334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:13:49</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44399.50959490741</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9641,10 +9411,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:13:28</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44399.50935185186</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9716,10 +9484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:13:27</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44399.50934027778</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9795,10 +9561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:13:24</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44399.50930555556</v>
       </c>
       <c r="I127" t="n">
         <v>61</v>
@@ -9877,10 +9641,8 @@
           <t>4964577049</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:13:17</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44399.50922453704</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -9944,10 +9706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:13:11</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44399.50915509259</v>
       </c>
       <c r="I129" t="n">
         <v>4</v>
@@ -10015,10 +9775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:12:43</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44399.50883101852</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -10095,10 +9853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:12:34</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44399.50872685185</v>
       </c>
       <c r="I131" t="n">
         <v>251</v>
@@ -10174,10 +9930,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:12:33</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44399.50871527778</v>
       </c>
       <c r="I132" t="n">
         <v>8</v>
@@ -10249,10 +10003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:12:31</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44399.50869212963</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10316,10 +10068,8 @@
           <t>4964569734</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:12:30</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44399.50868055555</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10391,10 +10141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:12:27</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44399.50864583333</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10462,10 +10210,8 @@
           <t>4964564708</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:12:11</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44399.50846064815</v>
       </c>
       <c r="I136" t="n">
         <v>4</v>
@@ -10541,10 +10287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:11:57</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44399.50829861111</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10612,10 +10356,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:11:55</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44399.50827546296</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10689,10 +10431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:11:43</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44399.50813657408</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10773,10 +10513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:11:34</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44399.50803240741</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10840,10 +10578,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:11:27</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44399.50795138889</v>
       </c>
       <c r="I141" t="n">
         <v>4</v>
@@ -10911,10 +10647,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:11:25</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44399.50792824074</v>
       </c>
       <c r="I142" t="n">
         <v>26</v>
@@ -10990,10 +10724,8 @@
           <t>4964567165</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:11:24</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44399.50791666667</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11064,10 +10796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:11:22</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44399.50789351852</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11131,10 +10861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:11:17</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44399.50783564815</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11210,10 +10938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:11:15</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44399.5078125</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11277,10 +11003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:11:13</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44399.50778935185</v>
       </c>
       <c r="I147" t="n">
         <v>57</v>
@@ -11348,10 +11072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:11:13</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44399.50778935185</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11427,10 +11149,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:11:11</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44399.5077662037</v>
       </c>
       <c r="I149" t="n">
         <v>10</v>
@@ -11506,10 +11226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:11:08</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44399.50773148148</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11580,10 +11298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:11:02</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44399.50766203704</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11647,10 +11363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:10:57</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44399.50760416667</v>
       </c>
       <c r="I152" t="n">
         <v>14</v>
@@ -11718,10 +11432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:10:52</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44399.5075462963</v>
       </c>
       <c r="I153" t="n">
         <v>3</v>
@@ -11797,10 +11509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:10:48</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44399.5075</v>
       </c>
       <c r="I154" t="n">
         <v>24</v>
@@ -11876,10 +11586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:10:39</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44399.50739583333</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11947,10 +11655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:10:38</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44399.50738425926</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -12026,10 +11732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:10:22</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44399.50719907408</v>
       </c>
       <c r="I157" t="n">
         <v>2</v>
@@ -12093,10 +11797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:10:21</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44399.5071875</v>
       </c>
       <c r="I158" t="n">
         <v>3</v>
@@ -12172,10 +11874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:10:15</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44399.50711805555</v>
       </c>
       <c r="I159" t="n">
         <v>3</v>
@@ -12243,10 +11943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:10:12</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44399.50708333333</v>
       </c>
       <c r="I160" t="n">
         <v>106</v>
@@ -12322,10 +12020,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:10:12</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44399.50708333333</v>
       </c>
       <c r="I161" t="n">
         <v>23</v>
@@ -12393,10 +12089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:10:03</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44399.50697916667</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12460,10 +12154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:10:02</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44399.50696759259</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12527,10 +12219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:10:01</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44399.50695601852</v>
       </c>
       <c r="I164" t="n">
         <v>2</v>
@@ -12594,10 +12284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:09:59</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44399.50693287037</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12669,10 +12357,8 @@
           <t>4964558202</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:09:58</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44399.5069212963</v>
       </c>
       <c r="I166" t="n">
         <v>92</v>
@@ -12748,10 +12434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:09:49</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44399.50681712963</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12819,10 +12503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-22 12:09:45</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44399.50677083333</v>
       </c>
       <c r="I168" t="n">
         <v>735</v>
